--- a/summer_2019_edited_csv/Copy of goodson_1965_table7.xlsx
+++ b/summer_2019_edited_csv/Copy of goodson_1965_table7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDFCA14-C36C-44AC-A33C-B0977E14D327}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB10049-9334-414D-8F6A-B6ACE1597E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="6180" windowWidth="17280" windowHeight="8976" xr2:uid="{010C4F2D-5B24-4314-92B4-F4C7EEFE31EB}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{010C4F2D-5B24-4314-92B4-F4C7EEFE31EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,22 +93,22 @@
     <t>Unidentifed  fish  eggs</t>
   </si>
   <si>
-    <t>Lepomis_macrochirus_4_5.9_in_75_1963_Mar_na_1963_Jun_na_lake_percNumber_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NAGoodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
-  </si>
-  <si>
-    <t>Lepomis_macrochirus_4_5.9_in_75_1963_Mar_na_1963_Jun_na_lake_percMass_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NAGoodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
-  </si>
-  <si>
-    <t>Lepomis_macrochirus_4_5.9_in_56_1963_Jul_na_1963_Oct_na_lake_percNumber_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NAGoodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
-  </si>
-  <si>
-    <t>Lepomis_macrochirus_4_5.9_in_56_1963_Jul_na_1963_Oct_na_lake_percMass_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NAGoodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
-  </si>
-  <si>
-    <t>Lepomis_macrochirus_4_5.9_in_21_1963_Nov_na_1964_Feb_na_lake_percNumber_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NAGoodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
-  </si>
-  <si>
-    <t>Lepomis_macrochirus_4_5.9_in_21_1963_Nov_na_1964_Feb_na_lake_percMass_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NAGoodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
+    <t>Lepomis_macrochirus_4_5.9_in_75_1963_Mar_na_1963_Jun_na_lake_percNumber_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NA_Goodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
+  </si>
+  <si>
+    <t>Lepomis_macrochirus_4_5.9_in_75_1963_Mar_na_1963_Jun_na_lake_percMass_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NA_Goodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
+  </si>
+  <si>
+    <t>Lepomis_macrochirus_4_5.9_in_56_1963_Jul_na_1963_Oct_na_lake_percNumber_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NA_Goodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
+  </si>
+  <si>
+    <t>Lepomis_macrochirus_4_5.9_in_56_1963_Jul_na_1963_Oct_na_lake_percMass_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NA_Goodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
+  </si>
+  <si>
+    <t>Lepomis_macrochirus_4_5.9_in_21_1963_Nov_na_1964_Feb_na_lake_percNumber_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NA_Goodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
+  </si>
+  <si>
+    <t>Lepomis_macrochirus_4_5.9_in_21_1963_Nov_na_1964_Feb_na_lake_percMass_percent_Goodson_1965_CaliforniaDepartmentOfFishAndGame_Pine Flat Lake, CA_NA_Fork length_NA_Goodson Jr, L. F. (1965). Diets of four warmwater game fishes in a fluctuating, steep-sided, California reservoir. California Fish and Game, 51, 259-269._tbl7</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
